--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -71,12 +71,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//击杀单位获得经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//击杀单位获得金币</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +149,12 @@
   <si>
     <t>Map/CreateUnits/CreateUnits2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitExperience</t>
+  </si>
+  <si>
+    <t>UnitGold</t>
   </si>
 </sst>
 </file>
@@ -468,20 +526,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,8 +550,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,8 +567,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -512,6 +583,12 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -123,12 +123,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+X轴偏移</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y轴偏移</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +207,22 @@
   </si>
   <si>
     <t>UnitGold</t>
+  </si>
+  <si>
+    <t>StartX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,7 +608,7 @@
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +624,20 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,8 +653,20 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>130</v>
+      </c>
+      <c r="I2">
+        <v>130</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -589,6 +681,18 @@
       </c>
       <c r="E3">
         <v>20</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>130</v>
+      </c>
+      <c r="I3">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,29 +199,105 @@
     <t>Map/CreateUnits/CreateUnits1</t>
   </si>
   <si>
+    <t>UnitExperience</t>
+  </si>
+  <si>
+    <t>UnitGold</t>
+  </si>
+  <si>
+    <t>StartX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Map/CreateUnits/CreateUnits2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitExperience</t>
-  </si>
-  <si>
-    <t>UnitGold</t>
-  </si>
-  <si>
-    <t>StartX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndY</t>
+    <t>Map/CreateUnits/CreateUnits3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits602</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,22 +695,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -674,24 +750,575 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>130</v>
+      </c>
+      <c r="I3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>130</v>
-      </c>
-      <c r="I3">
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>130</v>
+      </c>
+      <c r="I5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>130</v>
+      </c>
+      <c r="I7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>130</v>
+      </c>
+      <c r="I8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>130</v>
+      </c>
+      <c r="I9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>130</v>
+      </c>
+      <c r="I10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>130</v>
+      </c>
+      <c r="I11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>301</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>130</v>
+      </c>
+      <c r="I12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>302</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>130</v>
+      </c>
+      <c r="I13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>400</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>180</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>401</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>180</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>130</v>
+      </c>
+      <c r="I15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>402</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>180</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>130</v>
+      </c>
+      <c r="I16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>500</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>130</v>
+      </c>
+      <c r="I17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>501</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>130</v>
+      </c>
+      <c r="I18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>502</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>130</v>
+      </c>
+      <c r="I19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>600</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>350</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>130</v>
+      </c>
+      <c r="I20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>601</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>350</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>350</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>130</v>
+      </c>
+      <c r="I22">
         <v>130</v>
       </c>
     </row>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,9 @@
   <si>
     <t>Map/CreateUnits/CreateUnits602</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsOpen</t>
   </si>
 </sst>
 </file>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="J5" sqref="J5:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,7 +687,7 @@
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +715,11 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -741,8 +747,11 @@
       <c r="I2">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -770,8 +779,11 @@
       <c r="I3">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -799,8 +811,11 @@
       <c r="I4">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -828,8 +843,11 @@
       <c r="I5">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -857,8 +875,11 @@
       <c r="I6">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -886,8 +907,11 @@
       <c r="I7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -915,8 +939,11 @@
       <c r="I8">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -944,8 +971,11 @@
       <c r="I9">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -973,8 +1003,11 @@
       <c r="I10">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1002,8 +1035,11 @@
       <c r="I11">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1031,8 +1067,11 @@
       <c r="I12">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1060,8 +1099,11 @@
       <c r="I13">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1089,8 +1131,11 @@
       <c r="I14">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1118,8 +1163,11 @@
       <c r="I15">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1147,8 +1195,11 @@
       <c r="I16">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1176,8 +1227,11 @@
       <c r="I17">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -1205,8 +1259,11 @@
       <c r="I18">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -1234,8 +1291,11 @@
       <c r="I19">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -1263,8 +1323,11 @@
       <c r="I20">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -1292,8 +1355,11 @@
       <c r="I21">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -1320,12 +1386,15 @@
       </c>
       <c r="I22">
         <v>130</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>